--- a/data/sdgs/SDG13.xlsx
+++ b/data/sdgs/SDG13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/ZHAW/GitHub/keywords/data/sdgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12DBD68-074A-5E46-A670-EB6381F50CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00646208-E1A0-6A43-8B4C-F71B8F94950F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16900" xr2:uid="{F40116A4-D3DE-104F-9A9B-7DF4E22D6271}"/>
   </bookViews>
@@ -782,12 +782,6 @@
     <t>" co2 emission"</t>
   </si>
   <si>
-    <t>" cap and dividend"</t>
-  </si>
-  <si>
-    <t>" cap and share"</t>
-  </si>
-  <si>
     <t>" carbon accounting"</t>
   </si>
   <si>
@@ -1050,6 +1044,12 @@
   </si>
   <si>
     <t>" Anpassungsfähiges Management"</t>
+  </si>
+  <si>
+    <t>" Kohlenstoffbuchhaltung"</t>
+  </si>
+  <si>
+    <t>" Kohlenstoff-Audit"</t>
   </si>
 </sst>
 </file>
@@ -1085,9 +1085,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,10 +1142,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AE649B1-DA9B-9147-A45B-D2AEBD65D955}" name="_SDG13" displayName="_SDG13" ref="A1:L148" totalsRowShown="0">
-  <autoFilter ref="A1:L148" xr:uid="{0AE649B1-DA9B-9147-A45B-D2AEBD65D955}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L148">
-    <sortCondition ref="A1:A148"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AE649B1-DA9B-9147-A45B-D2AEBD65D955}" name="_SDG13" displayName="_SDG13" ref="A1:L146" totalsRowShown="0">
+  <autoFilter ref="A1:L146" xr:uid="{0AE649B1-DA9B-9147-A45B-D2AEBD65D955}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L146">
+    <sortCondition ref="A1:A146"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{79952562-0883-4E4B-9F64-E45581396FAC}" name="keyword_en" dataDxfId="11"/>
@@ -1463,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7766862E-0ED0-0541-93F7-FE361A4DE721}">
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1524,440 +1523,182 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="D2" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="D3" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>251</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>257</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>258</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>259</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>262</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>263</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>264</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>265</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>266</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>267</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>268</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>269</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>270</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>271</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -1966,7 +1707,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -1975,7 +1716,7 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
         <v>12</v>
@@ -1984,7 +1725,7 @@
         <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
@@ -1994,381 +1735,227 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="A30" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>285</v>
-      </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="A32" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>290</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="A36" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="A37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="A38" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" t="s">
-        <v>12</v>
-      </c>
-      <c r="L39" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="A40" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="A41" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>299</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="A43" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>301</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
+      <c r="A45" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>300</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="A47" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -2377,7 +1964,7 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2386,7 +1973,7 @@
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s">
         <v>12</v>
@@ -2395,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K48" t="s">
         <v>12</v>
@@ -2405,24 +1992,13 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+      <c r="A49" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
@@ -2431,7 +2007,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -2440,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H50" t="s">
         <v>12</v>
@@ -2449,7 +2025,7 @@
         <v>12</v>
       </c>
       <c r="J50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K50" t="s">
         <v>12</v>
@@ -2459,24 +2035,46 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="A51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
@@ -2485,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -2494,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
@@ -2503,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="J52" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K52" t="s">
         <v>12</v>
@@ -2514,37 +2112,34 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I53" t="s">
         <v>12</v>
       </c>
       <c r="J53" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="K53" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="L53" t="s">
         <v>12</v>
@@ -2552,7 +2147,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
@@ -2570,7 +2165,7 @@
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H54" t="s">
         <v>12</v>
@@ -2579,7 +2174,7 @@
         <v>12</v>
       </c>
       <c r="J54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K54" t="s">
         <v>12</v>
@@ -2590,42 +2185,12 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" t="s">
-        <v>280</v>
-      </c>
-      <c r="E55" t="s">
-        <v>316</v>
-      </c>
-      <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>70</v>
-      </c>
-      <c r="H55" t="s">
-        <v>96</v>
-      </c>
-      <c r="I55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" t="s">
-        <v>72</v>
-      </c>
-      <c r="K55" t="s">
-        <v>97</v>
-      </c>
-      <c r="L55" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
@@ -2634,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -2643,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H56" t="s">
         <v>12</v>
@@ -2652,7 +2217,7 @@
         <v>12</v>
       </c>
       <c r="J56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K56" t="s">
         <v>12</v>
@@ -2662,24 +2227,13 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+      <c r="A57" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
@@ -2688,52 +2242,74 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
+        <v>280</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
         <v>286</v>
       </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>36</v>
-      </c>
-      <c r="H58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K58" t="s">
-        <v>12</v>
-      </c>
-      <c r="L58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -2742,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -2751,7 +2327,7 @@
         <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H60" t="s">
         <v>12</v>
@@ -2760,7 +2336,7 @@
         <v>12</v>
       </c>
       <c r="J60" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K60" t="s">
         <v>12</v>
@@ -2771,7 +2347,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
@@ -2780,7 +2356,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -2789,7 +2365,7 @@
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s">
         <v>12</v>
@@ -2798,7 +2374,7 @@
         <v>12</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K61" t="s">
         <v>12</v>
@@ -2809,7 +2385,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
@@ -2827,7 +2403,7 @@
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
         <v>12</v>
@@ -2836,7 +2412,7 @@
         <v>12</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s">
         <v>12</v>
@@ -2847,7 +2423,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -2865,7 +2441,7 @@
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s">
         <v>12</v>
@@ -2874,7 +2450,7 @@
         <v>12</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K63" t="s">
         <v>12</v>
@@ -2885,7 +2461,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -2894,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -2903,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H64" t="s">
         <v>12</v>
@@ -2912,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K64" t="s">
         <v>12</v>
@@ -2923,147 +2499,70 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>168</v>
-      </c>
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" t="s">
-        <v>295</v>
-      </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" t="s">
-        <v>49</v>
-      </c>
-      <c r="K65" t="s">
-        <v>12</v>
-      </c>
-      <c r="L65" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>159</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" t="s">
-        <v>300</v>
-      </c>
-      <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>54</v>
-      </c>
-      <c r="H66" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" t="s">
-        <v>55</v>
-      </c>
-      <c r="K66" t="s">
-        <v>12</v>
-      </c>
-      <c r="L66" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="A67" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="A68" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="A69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>294</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" t="s">
+        <v>51</v>
+      </c>
+      <c r="K69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="A70" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -3081,7 +2580,7 @@
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s">
         <v>12</v>
@@ -3090,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="J71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K71" t="s">
         <v>12</v>
@@ -3100,62 +2599,51 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="A72" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>297</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>158</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" t="s">
-        <v>298</v>
-      </c>
-      <c r="E73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>52</v>
-      </c>
-      <c r="H73" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" t="s">
-        <v>53</v>
-      </c>
-      <c r="K73" t="s">
-        <v>12</v>
-      </c>
-      <c r="L73" t="s">
-        <v>12</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
@@ -3164,7 +2652,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -3173,7 +2661,7 @@
         <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
@@ -3182,7 +2670,7 @@
         <v>12</v>
       </c>
       <c r="J74" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K74" t="s">
         <v>12</v>
@@ -3192,54 +2680,73 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="A75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>295</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>60</v>
+      </c>
+      <c r="H75" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" t="s">
+        <v>61</v>
+      </c>
+      <c r="K75" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>161</v>
-      </c>
-      <c r="B76" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I76" t="s">
         <v>12</v>
       </c>
       <c r="J76" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="K76" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="L76" t="s">
         <v>12</v>
@@ -3247,54 +2754,24 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>162</v>
-      </c>
-      <c r="B77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" t="s">
-        <v>297</v>
-      </c>
-      <c r="E77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>60</v>
-      </c>
-      <c r="H77" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" t="s">
-        <v>61</v>
-      </c>
-      <c r="K77" t="s">
-        <v>12</v>
-      </c>
-      <c r="L77" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>167</v>
+      </c>
+      <c r="B78" t="s">
+        <v>188</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E78" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="F78" t="s">
         <v>12</v>
@@ -3303,7 +2780,7 @@
         <v>70</v>
       </c>
       <c r="H78" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I78" t="s">
         <v>12</v>
@@ -3312,40 +2789,62 @@
         <v>72</v>
       </c>
       <c r="K78" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L78" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
+      <c r="A79" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>278</v>
+      </c>
+      <c r="E79" t="s">
+        <v>305</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" t="s">
+        <v>125</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" t="s">
+        <v>72</v>
+      </c>
+      <c r="K79" t="s">
+        <v>126</v>
+      </c>
+      <c r="L79" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>167</v>
       </c>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E80" t="s">
         <v>306</v>
@@ -3357,7 +2856,7 @@
         <v>70</v>
       </c>
       <c r="H80" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="I80" t="s">
         <v>12</v>
@@ -3366,7 +2865,7 @@
         <v>72</v>
       </c>
       <c r="K80" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="L80" t="s">
         <v>12</v>
@@ -3377,13 +2876,13 @@
         <v>167</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E81" t="s">
         <v>307</v>
@@ -3395,7 +2894,7 @@
         <v>70</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I81" t="s">
         <v>12</v>
@@ -3404,7 +2903,7 @@
         <v>72</v>
       </c>
       <c r="K81" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L81" t="s">
         <v>12</v>
@@ -3415,13 +2914,13 @@
         <v>167</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E82" t="s">
         <v>308</v>
@@ -3433,7 +2932,7 @@
         <v>70</v>
       </c>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="I82" t="s">
         <v>12</v>
@@ -3442,7 +2941,7 @@
         <v>72</v>
       </c>
       <c r="K82" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="L82" t="s">
         <v>12</v>
@@ -3453,13 +2952,13 @@
         <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E83" t="s">
         <v>309</v>
@@ -3471,7 +2970,7 @@
         <v>70</v>
       </c>
       <c r="H83" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="I83" t="s">
         <v>12</v>
@@ -3480,7 +2979,7 @@
         <v>72</v>
       </c>
       <c r="K83" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="L83" t="s">
         <v>12</v>
@@ -3491,13 +2990,13 @@
         <v>167</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E84" t="s">
         <v>310</v>
@@ -3509,7 +3008,7 @@
         <v>70</v>
       </c>
       <c r="H84" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="I84" t="s">
         <v>12</v>
@@ -3518,7 +3017,7 @@
         <v>72</v>
       </c>
       <c r="K84" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="L84" t="s">
         <v>12</v>
@@ -3529,13 +3028,13 @@
         <v>167</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E85" t="s">
         <v>311</v>
@@ -3547,7 +3046,7 @@
         <v>70</v>
       </c>
       <c r="H85" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
         <v>12</v>
@@ -3556,7 +3055,7 @@
         <v>72</v>
       </c>
       <c r="K85" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L85" t="s">
         <v>12</v>
@@ -3567,13 +3066,13 @@
         <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E86" t="s">
         <v>312</v>
@@ -3585,7 +3084,7 @@
         <v>70</v>
       </c>
       <c r="H86" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I86" t="s">
         <v>12</v>
@@ -3594,7 +3093,7 @@
         <v>72</v>
       </c>
       <c r="K86" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="L86" t="s">
         <v>12</v>
@@ -3605,13 +3104,13 @@
         <v>167</v>
       </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E87" t="s">
         <v>313</v>
@@ -3623,7 +3122,7 @@
         <v>70</v>
       </c>
       <c r="H87" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="I87" t="s">
         <v>12</v>
@@ -3632,7 +3131,7 @@
         <v>72</v>
       </c>
       <c r="K87" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="L87" t="s">
         <v>12</v>
@@ -3643,16 +3142,16 @@
         <v>167</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E88" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
@@ -3661,7 +3160,7 @@
         <v>70</v>
       </c>
       <c r="H88" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="I88" t="s">
         <v>12</v>
@@ -3670,7 +3169,7 @@
         <v>72</v>
       </c>
       <c r="K88" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="L88" t="s">
         <v>12</v>
@@ -3681,16 +3180,16 @@
         <v>167</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E89" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
@@ -3699,7 +3198,7 @@
         <v>70</v>
       </c>
       <c r="H89" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="I89" t="s">
         <v>12</v>
@@ -3708,7 +3207,7 @@
         <v>72</v>
       </c>
       <c r="K89" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="L89" t="s">
         <v>12</v>
@@ -3719,13 +3218,13 @@
         <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E90" t="s">
         <v>317</v>
@@ -3737,7 +3236,7 @@
         <v>70</v>
       </c>
       <c r="H90" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I90" t="s">
         <v>12</v>
@@ -3746,7 +3245,7 @@
         <v>72</v>
       </c>
       <c r="K90" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="L90" t="s">
         <v>12</v>
@@ -3757,13 +3256,13 @@
         <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E91" t="s">
         <v>318</v>
@@ -3775,7 +3274,7 @@
         <v>70</v>
       </c>
       <c r="H91" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="I91" t="s">
         <v>12</v>
@@ -3784,7 +3283,7 @@
         <v>72</v>
       </c>
       <c r="K91" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="L91" t="s">
         <v>12</v>
@@ -3795,13 +3294,13 @@
         <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E92" t="s">
         <v>319</v>
@@ -3813,7 +3312,7 @@
         <v>70</v>
       </c>
       <c r="H92" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="I92" t="s">
         <v>12</v>
@@ -3822,7 +3321,7 @@
         <v>72</v>
       </c>
       <c r="K92" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="L92" t="s">
         <v>12</v>
@@ -3833,13 +3332,13 @@
         <v>167</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E93" t="s">
         <v>320</v>
@@ -3851,7 +3350,7 @@
         <v>70</v>
       </c>
       <c r="H93" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="I93" t="s">
         <v>12</v>
@@ -3860,7 +3359,7 @@
         <v>72</v>
       </c>
       <c r="K93" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="L93" t="s">
         <v>12</v>
@@ -3871,13 +3370,13 @@
         <v>167</v>
       </c>
       <c r="B94" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E94" t="s">
         <v>321</v>
@@ -3889,7 +3388,7 @@
         <v>70</v>
       </c>
       <c r="H94" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="I94" t="s">
         <v>12</v>
@@ -3898,7 +3397,7 @@
         <v>72</v>
       </c>
       <c r="K94" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="L94" t="s">
         <v>12</v>
@@ -3909,13 +3408,13 @@
         <v>167</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E95" t="s">
         <v>322</v>
@@ -3927,7 +3426,7 @@
         <v>70</v>
       </c>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="I95" t="s">
         <v>12</v>
@@ -3936,7 +3435,7 @@
         <v>72</v>
       </c>
       <c r="K95" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="L95" t="s">
         <v>12</v>
@@ -3947,13 +3446,13 @@
         <v>167</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E96" t="s">
         <v>323</v>
@@ -3965,7 +3464,7 @@
         <v>70</v>
       </c>
       <c r="H96" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="I96" t="s">
         <v>12</v>
@@ -3974,7 +3473,7 @@
         <v>72</v>
       </c>
       <c r="K96" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="L96" t="s">
         <v>12</v>
@@ -3985,13 +3484,13 @@
         <v>167</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E97" t="s">
         <v>324</v>
@@ -4003,7 +3502,7 @@
         <v>70</v>
       </c>
       <c r="H97" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="I97" t="s">
         <v>12</v>
@@ -4012,7 +3511,7 @@
         <v>72</v>
       </c>
       <c r="K97" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="L97" t="s">
         <v>12</v>
@@ -4023,13 +3522,13 @@
         <v>167</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E98" t="s">
         <v>325</v>
@@ -4041,7 +3540,7 @@
         <v>70</v>
       </c>
       <c r="H98" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="I98" t="s">
         <v>12</v>
@@ -4050,7 +3549,7 @@
         <v>72</v>
       </c>
       <c r="K98" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="L98" t="s">
         <v>12</v>
@@ -4061,16 +3560,16 @@
         <v>167</v>
       </c>
       <c r="B99" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E99" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F99" t="s">
         <v>12</v>
@@ -4079,7 +3578,7 @@
         <v>70</v>
       </c>
       <c r="H99" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="I99" t="s">
         <v>12</v>
@@ -4088,7 +3587,7 @@
         <v>72</v>
       </c>
       <c r="K99" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="L99" t="s">
         <v>12</v>
@@ -4099,16 +3598,16 @@
         <v>167</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E100" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F100" t="s">
         <v>12</v>
@@ -4117,7 +3616,7 @@
         <v>70</v>
       </c>
       <c r="H100" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I100" t="s">
         <v>12</v>
@@ -4126,7 +3625,7 @@
         <v>72</v>
       </c>
       <c r="K100" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="L100" t="s">
         <v>12</v>
@@ -4137,13 +3636,13 @@
         <v>167</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E101" t="s">
         <v>330</v>
@@ -4155,7 +3654,7 @@
         <v>70</v>
       </c>
       <c r="H101" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I101" t="s">
         <v>12</v>
@@ -4164,7 +3663,7 @@
         <v>72</v>
       </c>
       <c r="K101" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L101" t="s">
         <v>12</v>
@@ -4175,13 +3674,13 @@
         <v>167</v>
       </c>
       <c r="B102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E102" t="s">
         <v>331</v>
@@ -4193,7 +3692,7 @@
         <v>70</v>
       </c>
       <c r="H102" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I102" t="s">
         <v>12</v>
@@ -4202,7 +3701,7 @@
         <v>72</v>
       </c>
       <c r="K102" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L102" t="s">
         <v>12</v>
@@ -4213,13 +3712,13 @@
         <v>167</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E103" t="s">
         <v>332</v>
@@ -4231,7 +3730,7 @@
         <v>70</v>
       </c>
       <c r="H103" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I103" t="s">
         <v>12</v>
@@ -4240,7 +3739,7 @@
         <v>72</v>
       </c>
       <c r="K103" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="L103" t="s">
         <v>12</v>
@@ -4251,13 +3750,13 @@
         <v>167</v>
       </c>
       <c r="B104" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E104" t="s">
         <v>333</v>
@@ -4269,7 +3768,7 @@
         <v>70</v>
       </c>
       <c r="H104" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="I104" t="s">
         <v>12</v>
@@ -4278,7 +3777,7 @@
         <v>72</v>
       </c>
       <c r="K104" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="L104" t="s">
         <v>12</v>
@@ -4289,13 +3788,13 @@
         <v>167</v>
       </c>
       <c r="B105" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E105" t="s">
         <v>334</v>
@@ -4307,7 +3806,7 @@
         <v>70</v>
       </c>
       <c r="H105" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="I105" t="s">
         <v>12</v>
@@ -4316,7 +3815,7 @@
         <v>72</v>
       </c>
       <c r="K105" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="L105" t="s">
         <v>12</v>
@@ -4327,13 +3826,13 @@
         <v>167</v>
       </c>
       <c r="B106" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E106" t="s">
         <v>335</v>
@@ -4345,7 +3844,7 @@
         <v>70</v>
       </c>
       <c r="H106" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="I106" t="s">
         <v>12</v>
@@ -4354,7 +3853,7 @@
         <v>72</v>
       </c>
       <c r="K106" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="L106" t="s">
         <v>12</v>
@@ -4362,848 +3861,398 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>167</v>
-      </c>
-      <c r="B107" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" t="s">
-        <v>280</v>
-      </c>
-      <c r="E107" t="s">
-        <v>336</v>
-      </c>
-      <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>70</v>
-      </c>
-      <c r="H107" t="s">
-        <v>109</v>
-      </c>
-      <c r="I107" t="s">
-        <v>12</v>
-      </c>
-      <c r="J107" t="s">
-        <v>72</v>
-      </c>
-      <c r="K107" t="s">
-        <v>110</v>
-      </c>
-      <c r="L107" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>167</v>
-      </c>
-      <c r="B108" t="s">
-        <v>169</v>
-      </c>
-      <c r="C108" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" t="s">
-        <v>280</v>
-      </c>
-      <c r="E108" t="s">
-        <v>337</v>
-      </c>
-      <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
+        <v>301</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>62</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" t="s">
+        <v>12</v>
+      </c>
+      <c r="J109" t="s">
+        <v>63</v>
+      </c>
+      <c r="K109" t="s">
+        <v>12</v>
+      </c>
+      <c r="L109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>176</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>278</v>
+      </c>
+      <c r="E110" t="s">
+        <v>326</v>
+      </c>
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
         <v>70</v>
       </c>
-      <c r="H108" t="s">
-        <v>71</v>
-      </c>
-      <c r="I108" t="s">
-        <v>12</v>
-      </c>
-      <c r="J108" t="s">
+      <c r="H110" t="s">
+        <v>92</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" t="s">
         <v>72</v>
       </c>
-      <c r="K108" t="s">
-        <v>73</v>
-      </c>
-      <c r="L108" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
+      <c r="K110" t="s">
+        <v>93</v>
+      </c>
+      <c r="L110" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>163</v>
-      </c>
-      <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" t="s">
-        <v>303</v>
-      </c>
-      <c r="E111" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>62</v>
-      </c>
-      <c r="H111" t="s">
-        <v>12</v>
-      </c>
-      <c r="I111" t="s">
-        <v>12</v>
-      </c>
-      <c r="J111" t="s">
-        <v>63</v>
-      </c>
-      <c r="K111" t="s">
-        <v>12</v>
-      </c>
-      <c r="L111" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>176</v>
-      </c>
-      <c r="C112" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" t="s">
-        <v>280</v>
-      </c>
-      <c r="E112" t="s">
-        <v>328</v>
-      </c>
-      <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>70</v>
-      </c>
-      <c r="H112" t="s">
-        <v>92</v>
-      </c>
-      <c r="I112" t="s">
-        <v>12</v>
-      </c>
-      <c r="J112" t="s">
-        <v>72</v>
-      </c>
-      <c r="K112" t="s">
-        <v>93</v>
-      </c>
-      <c r="L112" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
+      <c r="A113" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
+      <c r="A114" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
+      <c r="A115" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
+      <c r="A116" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
+      <c r="A117" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
+      <c r="A118" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
+      <c r="A119" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
+      <c r="A120" t="s">
+        <v>164</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>277</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>64</v>
+      </c>
+      <c r="H120" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" t="s">
+        <v>65</v>
+      </c>
+      <c r="K120" t="s">
+        <v>12</v>
+      </c>
+      <c r="L120" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
+      <c r="A121" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>164</v>
-      </c>
-      <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" t="s">
-        <v>279</v>
-      </c>
-      <c r="E122" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s">
-        <v>64</v>
-      </c>
-      <c r="H122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" t="s">
-        <v>12</v>
-      </c>
-      <c r="J122" t="s">
-        <v>65</v>
-      </c>
-      <c r="K122" t="s">
-        <v>12</v>
-      </c>
-      <c r="L122" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
+      <c r="A123" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
+      <c r="A124" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
+      <c r="A125" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
+      <c r="A126" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
+      <c r="A127" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
+      <c r="A128" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
+      <c r="A129" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
+      <c r="A130" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
+      <c r="A131" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
+      <c r="A132" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
+      <c r="A133" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
+      <c r="A134" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
+      <c r="A135" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" t="s">
+        <v>144</v>
+      </c>
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>21</v>
+      </c>
+      <c r="H135" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" t="s">
+        <v>21</v>
+      </c>
+      <c r="K135" t="s">
+        <v>12</v>
+      </c>
+      <c r="L135" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
+      <c r="A136" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>144</v>
-      </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" t="s">
-        <v>144</v>
-      </c>
-      <c r="E137" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="s">
-        <v>21</v>
-      </c>
-      <c r="H137" t="s">
-        <v>12</v>
-      </c>
-      <c r="I137" t="s">
-        <v>12</v>
-      </c>
-      <c r="J137" t="s">
-        <v>21</v>
-      </c>
-      <c r="K137" t="s">
-        <v>12</v>
-      </c>
-      <c r="L137" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
+      <c r="A138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
+      <c r="A139" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
+      <c r="A140" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
+      <c r="A141" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
+      <c r="A142" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
+      <c r="A143" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
+      <c r="A144" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" t="s">
+        <v>302</v>
+      </c>
+      <c r="E144" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>66</v>
+      </c>
+      <c r="H144" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" t="s">
+        <v>12</v>
+      </c>
+      <c r="J144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K144" t="s">
+        <v>12</v>
+      </c>
+      <c r="L144" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
+      <c r="A145" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>303</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>68</v>
+      </c>
+      <c r="H145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" t="s">
+        <v>12</v>
+      </c>
+      <c r="J145" t="s">
+        <v>69</v>
+      </c>
+      <c r="K145" t="s">
+        <v>12</v>
+      </c>
+      <c r="L145" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>165</v>
-      </c>
-      <c r="B146" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" t="s">
-        <v>304</v>
-      </c>
-      <c r="E146" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" t="s">
-        <v>66</v>
-      </c>
-      <c r="H146" t="s">
-        <v>12</v>
-      </c>
-      <c r="I146" t="s">
-        <v>12</v>
-      </c>
-      <c r="J146" t="s">
-        <v>67</v>
-      </c>
-      <c r="K146" t="s">
-        <v>12</v>
-      </c>
-      <c r="L146" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>166</v>
-      </c>
-      <c r="B147" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" t="s">
-        <v>305</v>
-      </c>
-      <c r="E147" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" t="s">
-        <v>68</v>
-      </c>
-      <c r="H147" t="s">
-        <v>12</v>
-      </c>
-      <c r="I147" t="s">
-        <v>12</v>
-      </c>
-      <c r="J147" t="s">
-        <v>69</v>
-      </c>
-      <c r="K147" t="s">
-        <v>12</v>
-      </c>
-      <c r="L147" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/sdgs/SDG13.xlsx
+++ b/data/sdgs/SDG13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/ZHAW/GitHub/keywords/data/sdgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00646208-E1A0-6A43-8B4C-F71B8F94950F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5C987D-E71E-BE4B-9E57-39B4FF43C365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16900" xr2:uid="{F40116A4-D3DE-104F-9A9B-7DF4E22D6271}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="342">
   <si>
     <t>keyword_en</t>
   </si>
@@ -1050,6 +1050,18 @@
   </si>
   <si>
     <t>" Kohlenstoff-Audit"</t>
+  </si>
+  <si>
+    <t>" green impact"</t>
+  </si>
+  <si>
+    <t>" life cyle assessment"</t>
+  </si>
+  <si>
+    <t>" life-cyle assessment"</t>
+  </si>
+  <si>
+    <t>" lifecyle assessment"</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1097,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1142,10 +1155,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AE649B1-DA9B-9147-A45B-D2AEBD65D955}" name="_SDG13" displayName="_SDG13" ref="A1:L146" totalsRowShown="0">
-  <autoFilter ref="A1:L146" xr:uid="{0AE649B1-DA9B-9147-A45B-D2AEBD65D955}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L146">
-    <sortCondition ref="A1:A146"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AE649B1-DA9B-9147-A45B-D2AEBD65D955}" name="_SDG13" displayName="_SDG13" ref="A1:L150" totalsRowShown="0">
+  <autoFilter ref="A1:L150" xr:uid="{0AE649B1-DA9B-9147-A45B-D2AEBD65D955}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L147">
+    <sortCondition ref="A1:A147"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{79952562-0883-4E4B-9F64-E45581396FAC}" name="keyword_en" dataDxfId="11"/>
@@ -1462,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7766862E-0ED0-0541-93F7-FE361A4DE721}">
-  <dimension ref="A1:L146"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4051,169 +4064,149 @@
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>217</v>
-      </c>
+      <c r="A126" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>144</v>
-      </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" t="s">
-        <v>144</v>
-      </c>
-      <c r="E135" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" t="s">
-        <v>21</v>
-      </c>
-      <c r="H135" t="s">
-        <v>12</v>
-      </c>
-      <c r="I135" t="s">
-        <v>12</v>
-      </c>
-      <c r="J135" t="s">
-        <v>21</v>
-      </c>
-      <c r="K135" t="s">
-        <v>12</v>
-      </c>
-      <c r="L135" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>195</v>
+        <v>144</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>144</v>
+      </c>
+      <c r="E136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>21</v>
+      </c>
+      <c r="H136" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" t="s">
+        <v>12</v>
+      </c>
+      <c r="J136" t="s">
+        <v>21</v>
+      </c>
+      <c r="K136" t="s">
+        <v>12</v>
+      </c>
+      <c r="L136" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>165</v>
-      </c>
-      <c r="B144" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" t="s">
-        <v>302</v>
-      </c>
-      <c r="E144" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" t="s">
-        <v>66</v>
-      </c>
-      <c r="H144" t="s">
-        <v>12</v>
-      </c>
-      <c r="I144" t="s">
-        <v>12</v>
-      </c>
-      <c r="J144" t="s">
-        <v>67</v>
-      </c>
-      <c r="K144" t="s">
-        <v>12</v>
-      </c>
-      <c r="L144" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B145" t="s">
         <v>12</v>
@@ -4222,7 +4215,7 @@
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E145" t="s">
         <v>12</v>
@@ -4231,7 +4224,7 @@
         <v>12</v>
       </c>
       <c r="G145" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H145" t="s">
         <v>12</v>
@@ -4240,7 +4233,7 @@
         <v>12</v>
       </c>
       <c r="J145" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K145" t="s">
         <v>12</v>
@@ -4251,8 +4244,100 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>166</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" t="s">
+        <v>303</v>
+      </c>
+      <c r="E146" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>68</v>
+      </c>
+      <c r="H146" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146" t="s">
+        <v>12</v>
+      </c>
+      <c r="J146" t="s">
+        <v>69</v>
+      </c>
+      <c r="K146" t="s">
+        <v>12</v>
+      </c>
+      <c r="L146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>108</v>
       </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/sdgs/SDG13.xlsx
+++ b/data/sdgs/SDG13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/ZHAW/GitHub/keywords/data/sdgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5C987D-E71E-BE4B-9E57-39B4FF43C365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E258CFF-130C-7548-9BCA-F44A2A15769C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16900" xr2:uid="{F40116A4-D3DE-104F-9A9B-7DF4E22D6271}"/>
   </bookViews>
@@ -1477,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7766862E-0ED0-0541-93F7-FE361A4DE721}">
   <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
